--- a/Example Models/Project02Example-ViewsCreation-User_Input.xlsx
+++ b/Example Models/Project02Example-ViewsCreation-User_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="View_Name" sheetId="1" r:id="rId1"/>
@@ -142,40 +142,40 @@
     <t>Level(Name=Podium Penthouse, Elevation=147.875)</t>
   </si>
   <si>
-    <t>ProjectExample02_L01-A_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L01-B_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L01-C_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L02-A_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L02-B_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L02-C_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L03-A_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L03-B_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L03-C_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L04-A_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L04-B_AR_OrgCode-SOLUTION</t>
-  </si>
-  <si>
-    <t>ProjectExample02_L04-C_AR_OrgCode-SOLUTION</t>
+    <t>ProjectExample02_L01-A_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L01-B_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L01-C_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L02-A_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L02-B_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L02-C_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L03-A_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L03-B_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L03-C_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L04-A_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L04-B_AR_OrgCode</t>
+  </si>
+  <si>
+    <t>ProjectExample02_L04-C_AR_OrgCode</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -724,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
